--- a/SBTAB_Viswan_2018_unnormalized.xlsx
+++ b/SBTAB_Viswan_2018_unnormalized.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\Git\Thesis_Code\Subcellular_Workflow_Matlab\Model\Model_Findsim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santos\Documents\Git\Thesis_Code\Subcellular_Workflow_Matlab\Model\Model_Viswan_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BAA752-1EF1-4289-9941-E6ECC218F8E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0627799-5413-4FE3-A39A-E5AC45A2344E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3659,40 +3659,40 @@
     <t>(MAPK_p+MAPK_p_p)</t>
   </si>
   <si>
-    <t>TableName='Defaults' TableType='Quantity' TableTitle='Default units for this model' SBtabVersion='1.0' Document='SBTAB_Viswan_2018'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Viswan_2018' TableName='Compartment' TableTitle='SBTAB_Viswan_2018 Compound' TableType = 'Quantity'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Viswan_2018' TableName='Compound' TableTitle='SBTAB_Viswan_2018 Compound' TableType = 'Compound'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Viswan_2018' TableName='Parameter' TableTitle='SBTAB_Viswan_2018 Parameter' TableType = 'Quantity'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Viswan_2018' TableName='Reaction' TableTitle='SBTAB_Viswan_2018 Reaction' TableType = 'Reaction'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Viswan_2018' TableName='Output' TableTitle='SBTAB_Viswan_2018 Output' TableType = 'Quantity'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Viswan_2018' TableName='Expression' TableTitle='SBTAB_Viswan_2018 Expression' TableType = 'Expression'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Viswan_2018' TableName='Experiments' TableTitle='SBTAB_Viswan_2018 Experiments' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Viswan_2018' TableName='E0' TableTitle='SBTAB_Viswan_2018 E0' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Viswan_2018' TableName='E0I' TableTitle='SBTAB_Viswan_2018 E0I' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Viswan_2018' TableName='E1' TableTitle='SBTAB_Viswan_2018 E1' TableType = 'QuantityMatrix'</t>
-  </si>
-  <si>
-    <t>SBtabVersion='1.0' Document='SBTAB_Viswan_2018' TableName='E1I' TableTitle='SBTAB_Viswan_2018 E1I' TableType = 'QuantityMatrix'</t>
+    <t>TableName='Defaults' TableType='Quantity' TableTitle='Default units for this model' SBtabVersion='1.0' Document='Viswan_2018'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Compartment' TableTitle='Viswan_2018 Compound' TableType = 'Quantity'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Compound' TableTitle='Viswan_2018 Compound' TableType = 'Compound'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Parameter' TableTitle='Viswan_2018 Parameter' TableType = 'Quantity'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Reaction' TableTitle='Viswan_2018 Reaction' TableType = 'Reaction'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Output' TableTitle='Viswan_2018 Output' TableType = 'Quantity'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Expression' TableTitle='Viswan_2018 Expression' TableType = 'Expression'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='Experiments' TableTitle='Viswan_2018 Experiments' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E0' TableTitle='Viswan_2018 E0' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E0I' TableTitle='Viswan_2018 E0I' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E1' TableTitle='Viswan_2018 E1' TableType = 'QuantityMatrix'</t>
+  </si>
+  <si>
+    <t>SBtabVersion='1.0' Document='Viswan_2018' TableName='E1I' TableTitle='Viswan_2018 E1I' TableType = 'QuantityMatrix'</t>
   </si>
 </sst>
 </file>
@@ -16124,7 +16124,7 @@
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
